--- a/data/trans_orig/IP07A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0819FFA-BF3A-42AD-9BE4-6736523FA2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3196C369-E775-45DF-AA81-ACD5DEF567B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C03A8B8B-34A6-47F9-9F95-A7A3562EF8ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B592D155-0157-40BB-A8F2-2D21DB730661}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="706">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -94,2050 +94,2068 @@
     <t>5,36%</t>
   </si>
   <si>
-    <t>27,5%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>22,1%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>28,35%</t>
   </si>
   <si>
-    <t>32,59%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>30,5%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>50,5%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
 </sst>
 </file>
@@ -2549,7 +2567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53123F9-1866-490F-97A0-E15037AE9479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BE9E49-A5A4-4924-930F-73315D4A8D7F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3295,7 +3313,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3304,13 +3322,13 @@
         <v>1294</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3319,13 +3337,13 @@
         <v>2574</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3358,13 @@
         <v>680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3355,13 +3373,13 @@
         <v>1975</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3370,13 +3388,13 @@
         <v>2654</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3409,13 @@
         <v>14414</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3406,13 +3424,13 @@
         <v>13863</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>44</v>
@@ -3421,13 +3439,13 @@
         <v>28277</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3460,13 @@
         <v>29734</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>44</v>
@@ -3457,13 +3475,13 @@
         <v>27474</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -3472,13 +3490,13 @@
         <v>57209</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3511,13 @@
         <v>53126</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -3508,13 +3526,13 @@
         <v>58746</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -3523,13 +3541,13 @@
         <v>111872</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3603,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3603,7 +3621,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3612,13 +3630,13 @@
         <v>687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3627,13 +3645,13 @@
         <v>687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3666,13 @@
         <v>1439</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3663,13 +3681,13 @@
         <v>1302</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3678,13 +3696,13 @@
         <v>2741</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3717,13 @@
         <v>12925</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -3714,13 +3732,13 @@
         <v>12665</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>41</v>
@@ -3729,13 +3747,13 @@
         <v>25590</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3768,13 @@
         <v>15673</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3765,13 +3783,13 @@
         <v>17079</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -3780,13 +3798,13 @@
         <v>32752</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3819,13 @@
         <v>36258</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -3816,13 +3834,13 @@
         <v>29324</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
@@ -3831,13 +3849,13 @@
         <v>65581</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3911,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3905,13 +3923,13 @@
         <v>1344</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3920,13 +3938,13 @@
         <v>1577</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3935,13 +3953,13 @@
         <v>2921</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3974,13 @@
         <v>1389</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -3971,13 +3989,13 @@
         <v>3184</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -3986,13 +4004,13 @@
         <v>4574</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4025,13 @@
         <v>14789</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>26</v>
@@ -4022,13 +4040,13 @@
         <v>19717</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -4037,13 +4055,13 @@
         <v>34506</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4076,13 @@
         <v>21485</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -4112,10 +4130,10 @@
         <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>63</v>
@@ -4124,13 +4142,13 @@
         <v>48062</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>151</v>
@@ -4139,13 +4157,13 @@
         <v>108295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4231,13 @@
         <v>3222</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -4228,13 +4246,13 @@
         <v>4173</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -4243,13 +4261,13 @@
         <v>7396</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4282,13 @@
         <v>4873</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -4279,13 +4297,13 @@
         <v>7267</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -4294,13 +4312,13 @@
         <v>12140</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4333,13 @@
         <v>58575</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H36" s="7">
         <v>83</v>
@@ -4330,13 +4348,13 @@
         <v>55755</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>170</v>
@@ -4345,13 +4363,13 @@
         <v>114330</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4384,13 @@
         <v>93553</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>129</v>
@@ -4381,13 +4399,13 @@
         <v>85521</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>270</v>
@@ -4396,13 +4414,13 @@
         <v>179074</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4435,13 @@
         <v>185363</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H38" s="7">
         <v>247</v>
@@ -4432,13 +4450,13 @@
         <v>167632</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M38" s="7">
         <v>526</v>
@@ -4447,13 +4465,13 @@
         <v>352996</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,7 +4527,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4530,7 +4548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16A21E-FA41-411F-8B4D-E21F6FB3217E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9EC8B5-A8A4-467F-B440-808E5B893714}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4547,7 +4565,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4660,7 +4678,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4675,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4690,7 +4708,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4720,13 +4738,13 @@
         <v>925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4735,13 +4753,13 @@
         <v>925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4774,13 @@
         <v>3157</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4771,13 +4789,13 @@
         <v>870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4786,13 +4804,13 @@
         <v>4027</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4825,13 @@
         <v>3425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4822,13 +4840,13 @@
         <v>4323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4837,13 +4855,13 @@
         <v>7748</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4876,13 @@
         <v>7908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4873,13 +4891,13 @@
         <v>5825</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4888,13 +4906,13 @@
         <v>13732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4977,13 +4995,13 @@
         <v>661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4992,13 +5010,13 @@
         <v>661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5031,13 @@
         <v>1946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5028,13 +5046,13 @@
         <v>2092</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5043,13 +5061,13 @@
         <v>4038</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,7 +5082,7 @@
         <v>11566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>300</v>
@@ -5148,10 +5166,10 @@
         <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5184,13 @@
         <v>34357</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -5181,13 +5199,13 @@
         <v>28381</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -5196,13 +5214,13 @@
         <v>62738</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,10 +5306,10 @@
         <v>328</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5300,13 +5318,13 @@
         <v>5506</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5339,13 @@
         <v>2597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5336,13 +5354,13 @@
         <v>1844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5351,13 +5369,13 @@
         <v>4441</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5390,13 @@
         <v>20933</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -5387,13 +5405,13 @@
         <v>20218</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -5402,13 +5420,13 @@
         <v>41151</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5441,13 @@
         <v>15905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5438,13 +5456,13 @@
         <v>26030</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -5453,13 +5471,13 @@
         <v>41935</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5492,13 @@
         <v>54299</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>73</v>
@@ -5489,7 +5507,7 @@
         <v>48402</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>359</v>
@@ -5566,7 +5584,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5584,7 +5602,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5596,10 +5614,10 @@
         <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -5608,10 +5626,10 @@
         <v>3117</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>369</v>
@@ -5716,7 +5734,7 @@
         <v>384</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5749,13 @@
         <v>12389</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5746,13 +5764,13 @@
         <v>19230</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -5761,13 +5779,13 @@
         <v>31620</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5800,13 @@
         <v>41975</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -5797,13 +5815,13 @@
         <v>32448</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>114</v>
@@ -5812,13 +5830,13 @@
         <v>74423</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,7 +5892,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5955,10 +5973,10 @@
         <v>413</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>51</v>
+        <v>414</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5967,7 +5985,7 @@
         <v>7505</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>415</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>416</v>
@@ -5991,10 +6009,10 @@
         <v>418</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>276</v>
+        <v>419</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -6003,13 +6021,13 @@
         <v>20154</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -6021,10 +6039,10 @@
         <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6057,13 @@
         <v>26075</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -6054,13 +6072,13 @@
         <v>18419</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M31" s="7">
         <v>61</v>
@@ -6069,13 +6087,13 @@
         <v>44493</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6108,13 @@
         <v>40911</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H32" s="7">
         <v>56</v>
@@ -6105,13 +6123,13 @@
         <v>43585</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -6120,13 +6138,13 @@
         <v>84497</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6212,13 @@
         <v>4764</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>446</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -6209,13 +6227,13 @@
         <v>11278</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -6224,13 +6242,13 @@
         <v>16042</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6263,13 @@
         <v>10054</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -6260,13 +6278,13 @@
         <v>9267</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>96</v>
+        <v>453</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M35" s="7">
         <v>28</v>
@@ -6275,13 +6293,13 @@
         <v>19321</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6314,13 @@
         <v>68871</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H36" s="7">
         <v>88</v>
@@ -6311,13 +6329,13 @@
         <v>62606</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M36" s="7">
         <v>188</v>
@@ -6326,13 +6344,13 @@
         <v>131476</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>464</v>
+        <v>111</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>385</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6365,13 @@
         <v>68099</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H37" s="7">
         <v>114</v>
@@ -6362,13 +6380,13 @@
         <v>80134</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M37" s="7">
         <v>216</v>
@@ -6377,13 +6395,13 @@
         <v>148234</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,13 +6416,13 @@
         <v>179450</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H38" s="7">
         <v>226</v>
@@ -6413,13 +6431,13 @@
         <v>158641</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>123</v>
+        <v>480</v>
       </c>
       <c r="M38" s="7">
         <v>484</v>
@@ -6428,13 +6446,13 @@
         <v>338090</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,7 +6508,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6511,7 +6529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B5700E-BF9D-4D82-B7DC-1DFA36D74039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8174395A-85CB-494D-9BD8-BE18CAF88474}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6528,7 +6546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6635,13 +6653,13 @@
         <v>1107</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6656,7 +6674,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6665,13 +6683,13 @@
         <v>1107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6701,13 +6719,13 @@
         <v>1023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>490</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6716,13 +6734,13 @@
         <v>1023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6755,13 @@
         <v>3305</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6752,13 +6770,13 @@
         <v>2163</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6767,13 +6785,13 @@
         <v>5468</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,7 +6806,7 @@
         <v>4135</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>502</v>
@@ -6872,10 +6890,10 @@
         <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6961,13 @@
         <v>2080</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -6958,13 +6976,13 @@
         <v>2778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -6973,13 +6991,13 @@
         <v>4858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>525</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +7012,13 @@
         <v>2367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -7009,13 +7027,13 @@
         <v>1840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -7024,13 +7042,13 @@
         <v>4208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>528</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7063,13 @@
         <v>12225</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -7060,13 +7078,13 @@
         <v>9508</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -7075,13 +7093,13 @@
         <v>21733</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7114,13 @@
         <v>17844</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -7111,13 +7129,13 @@
         <v>15912</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -7126,13 +7144,13 @@
         <v>33755</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,10 +7165,10 @@
         <v>24797</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>550</v>
@@ -7165,10 +7183,10 @@
         <v>551</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>552</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -7177,13 +7195,13 @@
         <v>51674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,13 +7269,13 @@
         <v>2070</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>558</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7266,13 +7284,13 @@
         <v>1963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>558</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -7281,13 +7299,13 @@
         <v>4033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,13 +7320,13 @@
         <v>3658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -7317,13 +7335,13 @@
         <v>6953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>567</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7332,13 +7350,13 @@
         <v>10611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7371,13 @@
         <v>17746</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>527</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -7368,13 +7386,13 @@
         <v>19016</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -7383,13 +7401,13 @@
         <v>36762</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7422,13 @@
         <v>28423</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -7419,13 +7437,13 @@
         <v>34880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M19" s="7">
         <v>95</v>
@@ -7434,13 +7452,13 @@
         <v>63303</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7473,13 @@
         <v>55753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -7470,13 +7488,13 @@
         <v>43252</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M20" s="7">
         <v>143</v>
@@ -7485,13 +7503,13 @@
         <v>99005</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7547,7 +7565,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7565,7 +7583,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7574,13 +7592,13 @@
         <v>1352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -7589,13 +7607,13 @@
         <v>2737</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,13 +7628,13 @@
         <v>2006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7625,13 +7643,13 @@
         <v>1139</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>452</v>
+        <v>605</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -7640,13 +7658,13 @@
         <v>3144</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>608</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>604</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7679,13 @@
         <v>13028</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -7676,13 +7694,13 @@
         <v>12391</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -7691,13 +7709,13 @@
         <v>25419</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,13 +7730,13 @@
         <v>15066</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>538</v>
+        <v>619</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -7727,13 +7745,13 @@
         <v>12843</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>618</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -7742,13 +7760,13 @@
         <v>27909</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7781,13 @@
         <v>46458</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -7778,13 +7796,13 @@
         <v>43986</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="M26" s="7">
         <v>132</v>
@@ -7793,13 +7811,13 @@
         <v>90444</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,7 +7873,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7867,13 +7885,13 @@
         <v>2201</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>636</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7882,13 +7900,13 @@
         <v>1547</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -7897,13 +7915,13 @@
         <v>3749</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>632</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>448</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7936,13 @@
         <v>1434</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>635</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -7933,13 +7951,13 @@
         <v>4521</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>637</v>
+        <v>220</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -7948,13 +7966,13 @@
         <v>5955</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7987,13 @@
         <v>26063</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>643</v>
+        <v>574</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H30" s="7">
         <v>31</v>
@@ -7984,13 +8002,13 @@
         <v>22270</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>315</v>
+        <v>648</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>649</v>
       </c>
       <c r="M30" s="7">
         <v>67</v>
@@ -7999,13 +8017,13 @@
         <v>48333</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>121</v>
+        <v>650</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +8038,13 @@
         <v>29832</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="H31" s="7">
         <v>42</v>
@@ -8035,13 +8053,13 @@
         <v>33298</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>64</v>
+        <v>656</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="M31" s="7">
         <v>83</v>
@@ -8050,13 +8068,13 @@
         <v>63130</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8089,13 @@
         <v>42612</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="H32" s="7">
         <v>60</v>
@@ -8086,13 +8104,13 @@
         <v>45955</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="M32" s="7">
         <v>116</v>
@@ -8101,13 +8119,13 @@
         <v>88567</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,13 +8193,13 @@
         <v>8843</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>667</v>
+        <v>457</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -8190,13 +8208,13 @@
         <v>7641</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>668</v>
+        <v>408</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -8205,13 +8223,13 @@
         <v>16484</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>292</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8244,13 @@
         <v>9465</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>675</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="H35" s="7">
         <v>22</v>
@@ -8241,13 +8259,13 @@
         <v>15477</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>96</v>
+        <v>677</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="M35" s="7">
         <v>35</v>
@@ -8256,13 +8274,13 @@
         <v>24941</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>675</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8295,13 @@
         <v>72367</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>676</v>
+        <v>473</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>605</v>
+        <v>681</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="H36" s="7">
         <v>98</v>
@@ -8292,13 +8310,13 @@
         <v>65348</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="M36" s="7">
         <v>199</v>
@@ -8307,13 +8325,13 @@
         <v>137714</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8328,13 +8346,13 @@
         <v>95300</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="H37" s="7">
         <v>143</v>
@@ -8343,13 +8361,13 @@
         <v>100993</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>693</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="M37" s="7">
         <v>273</v>
@@ -8358,13 +8376,13 @@
         <v>196293</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>690</v>
+        <v>469</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8379,13 +8397,13 @@
         <v>175387</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="H38" s="7">
         <v>235</v>
@@ -8394,13 +8412,13 @@
         <v>166749</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="M38" s="7">
         <v>475</v>
@@ -8409,13 +8427,13 @@
         <v>342136</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>168</v>
+        <v>704</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,7 +8489,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
